--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43061,6 +43061,41 @@
         <v>152000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43096,6 +43096,41 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43131,6 +43131,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43166,6 +43166,41 @@
         <v>10600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43201,6 +43201,41 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1193000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43236,6 +43236,41 @@
         <v>1193000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43271,6 +43271,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>121200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43306,6 +43306,41 @@
         <v>121200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43341,6 +43341,41 @@
         <v>4300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>102000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43376,6 +43376,41 @@
         <v>102000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>257900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43411,6 +43411,41 @@
         <v>257900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>100500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43446,6 +43446,41 @@
         <v>100500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43481,6 +43481,76 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1010000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43551,6 +43551,76 @@
         <v>1010000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>31100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>378000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43621,6 +43621,41 @@
         <v>378000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>210200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43656,6 +43656,41 @@
         <v>210200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>295200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43691,6 +43691,41 @@
         <v>295200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>394000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43726,6 +43726,41 @@
         <v>394000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>904200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43761,6 +43761,76 @@
         <v>904200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,43 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43868,6 +43868,41 @@
         </is>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1070000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84888,6 +84888,41 @@
         <v>1070000</v>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2413" t="n">
+        <v>3213100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2413"/>
+  <dimension ref="A1:I2414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84923,6 +84923,41 @@
         <v>3213100</v>
       </c>
     </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2414" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2414" t="n">
+        <v>3264500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2414"/>
+  <dimension ref="A1:I2415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84958,6 +84958,41 @@
         <v>3264500</v>
       </c>
     </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2415" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2415" t="n">
+        <v>3250500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2415"/>
+  <dimension ref="A1:I2416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84993,6 +84993,41 @@
         <v>3250500</v>
       </c>
     </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2416" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2416" t="n">
+        <v>3499600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2416"/>
+  <dimension ref="A1:I2417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85028,6 +85028,41 @@
         <v>3499600</v>
       </c>
     </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2417" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2417" t="n">
+        <v>208500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2417"/>
+  <dimension ref="A1:I2418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85063,6 +85063,41 @@
         <v>208500</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>644200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2418"/>
+  <dimension ref="A1:I2419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85098,6 +85098,41 @@
         <v>644200</v>
       </c>
     </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2419" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2419" t="n">
+        <v>2202700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2419"/>
+  <dimension ref="A1:I2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85133,6 +85133,41 @@
         <v>2202700</v>
       </c>
     </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2420" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2420" t="n">
+        <v>264400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85168,6 +85168,41 @@
         <v>264400</v>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2421" t="n">
+        <v>240500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2421"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85203,6 +85203,41 @@
         <v>240500</v>
       </c>
     </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2422" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2422" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2422" t="n">
+        <v>200500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85238,6 +85238,41 @@
         <v>200500</v>
       </c>
     </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2423" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2423" t="n">
+        <v>2228300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2423"/>
+  <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85273,6 +85273,41 @@
         <v>2228300</v>
       </c>
     </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2424" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2424" t="n">
+        <v>6122300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85308,6 +85308,41 @@
         <v>6122300</v>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2425" t="n">
+        <v>7983200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85343,6 +85343,41 @@
         <v>7983200</v>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2426" t="n">
+        <v>3242800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85378,6 +85378,41 @@
         <v>3242800</v>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2427" t="n">
+        <v>6577100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85413,6 +85413,41 @@
         <v>6577100</v>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2428" t="n">
+        <v>575800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85448,6 +85448,41 @@
         <v>575800</v>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2429" t="n">
+        <v>4743600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85483,6 +85483,41 @@
         <v>4743600</v>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2430" t="n">
+        <v>2054400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85518,6 +85518,41 @@
         <v>2054400</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2431" t="n">
+        <v>1976000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85553,6 +85553,41 @@
         <v>1976000</v>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>2035200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85588,6 +85588,41 @@
         <v>2035200</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2433" t="n">
+        <v>2874500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85623,6 +85623,41 @@
         <v>2874500</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>601300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85658,6 +85658,41 @@
         <v>601300</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2435" t="n">
+        <v>304700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85693,6 +85693,41 @@
         <v>304700</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>5200400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85728,6 +85728,41 @@
         <v>5200400</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>8478800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85763,6 +85763,76 @@
         <v>8478800</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>7022</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>GTRONIC</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I2438" t="n">
+        <v>5953000</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2439" t="n">
+        <v>5621800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2439"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85833,6 +85833,41 @@
         <v>5621800</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2440" t="n">
+        <v>1798500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85868,6 +85868,111 @@
         <v>1798500</v>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2441" t="n">
+        <v>1423800</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2442" t="n">
+        <v>647100</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>793300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85973,6 +85973,41 @@
         <v>793300</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>1075900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86008,6 +86008,41 @@
         <v>1075900</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>1034900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5166.xlsx
+++ b/data/5166.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86043,6 +86043,111 @@
         <v>1034900</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>11076200</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>3080700</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>MINDA</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>11488000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
